--- a/Diseño_ejecion/casos de prueba PetAnimal.xlsx
+++ b/Diseño_ejecion/casos de prueba PetAnimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E51C8A-76CD-4E5B-80ED-4B65AE4F3E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64F9C0-F26F-453B-9D72-554AECBFF61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2925" windowWidth="15375" windowHeight="7875" tabRatio="890" firstSheet="2" activeTab="6" xr2:uid="{DABBC91F-C9FD-4BBB-BE2E-39CF24ACFFD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="890" activeTab="6" xr2:uid="{DABBC91F-C9FD-4BBB-BE2E-39CF24ACFFD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Agg mascota" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="325">
   <si>
     <t>No</t>
   </si>
@@ -90,12 +98,6 @@
     <t>Cp_add5</t>
   </si>
   <si>
-    <t xml:space="preserve">Adicionar mascota dejando el campo obligatorio "id" category vacio  </t>
-  </si>
-  <si>
-    <t>Adicionar mascota con el campo obligatorio "Name" category  vacio.</t>
-  </si>
-  <si>
     <t>Adicionar unidad con el campo obligatorio "Name" mascota Vacio</t>
   </si>
   <si>
@@ -132,9 +134,6 @@
     <t>Se actualiza datos de una mascota, ingresando el campo de "petId" incorrecto</t>
   </si>
   <si>
-    <t>Se actualiza datos de una mascota, ingresando el campo de "petId" correccto</t>
-  </si>
-  <si>
     <t>Se actualizara la informacion de la mascota, mostrar status code 200 y mostrar la informacion actualizada de la mascota</t>
   </si>
   <si>
@@ -150,18 +149,9 @@
     <t>No se actualizara la informacion de la mascota, mostrar status code 405 Pet not found</t>
   </si>
   <si>
-    <t>mostrar status code 405</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eliminar mascota </t>
   </si>
   <si>
-    <t>Se eliminará una mascota, ingresando el campo de "petId" incorrecto</t>
-  </si>
-  <si>
-    <t>No se eliminará la mascota, mostrar status code 400 Pet not found</t>
-  </si>
-  <si>
     <t>Filtrar mascota por ID</t>
   </si>
   <si>
@@ -180,9 +170,6 @@
     <t>Filtrar mascota por Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Se filtra mascota, sin seleccionar  "findBStatus" </t>
-  </si>
-  <si>
     <t xml:space="preserve">Se filtra mascota, seleccionando  estado "available" </t>
   </si>
   <si>
@@ -231,9 +218,6 @@
     <t>1. /pet                                                2.  00                                                  3.  -----                                                     4.  flor                                                  5. photos/flor/                                                 6. 0002                                                 7. flores                                                    8. Pending</t>
   </si>
   <si>
-    <t xml:space="preserve">1. /pet                                                2.  001                                                3.  Gato                                                     4. manchas                                                     5. photos/manchas/                                                 6. 0003                                              7. pintas                                                   8. pending </t>
-  </si>
-  <si>
     <t>1. /pet                                                2.  00                                                   3.  perro                                                     4. dog                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. -----</t>
   </si>
   <si>
@@ -258,27 +242,9 @@
     <t>Se actualiza datos de una mascota, ingresando el campo de "petId" correcto</t>
   </si>
   <si>
-    <t xml:space="preserve">1. /pet/{petId}                                                 2.  01                                                        3.  bruno                                                    4.  available                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. /pet/{petId}                                                 2.  2                                                         3.  pintas                                                    4.  ---                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1./pet/{petId}                                                    2.  0,1                                                    3.  lucas                                                    4.  available                                                 </t>
-  </si>
-  <si>
     <t xml:space="preserve">datos de la unidad a actualizar </t>
   </si>
   <si>
-    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                    2. Ingresar "petId" incorrecto(numero decimal)                       3. Ingresar campo "name"                                                                    4. Ingresar el campo "Status"                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" correcto (numero entero)                                           3. Ingresar campo "name"                                                                    4. Ingresar el campo "Status"                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" correcto (numero entero)                                      3. Ingresar campo "name"                                                                    4. No ingresar el campo "Status"                              </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. ingresar a la Url: /pet/findByStatus                            2. Seleccionar estado "Sold"                   </t>
   </si>
   <si>
@@ -288,9 +254,6 @@
     <t xml:space="preserve">1. ingresar a la Url: /pet/findByStatus                             2. Seleccionar estado "Available"                   </t>
   </si>
   <si>
-    <t xml:space="preserve">1. ingresar a la Url: /pet/findByStatus                           2. No seleccionar "findBStatus"                                            </t>
-  </si>
-  <si>
     <t>1. /pet/findByStatus                                 2. ---</t>
   </si>
   <si>
@@ -312,19 +275,7 @@
     <t>1.  /pet/{petId}                                                   2. 1</t>
   </si>
   <si>
-    <t xml:space="preserve">1. ingresar a la Url: /pet/{petId}                            2. Ingresar "petId" incorrecto(numero decimal)                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ingresar a la Url: /pet/{petId}                                  2. Ingresar "petId" incorrecto(numero decimal)                    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Datos de la unidad a eliminar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 /pet/{petId}                                                                  2.  2,1   </t>
-  </si>
-  <si>
-    <t>1 /pet/{petId}                                                                  2.  2</t>
   </si>
   <si>
     <t>datos de la unidad a filtrar</t>
@@ -433,43 +384,640 @@
     <t>Actualizar informacion de una mascota</t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizar una  mascota ingresando el campo  "petid" incorrecto </t>
-  </si>
-  <si>
     <t xml:space="preserve">Actualizar una  mascota ingresando todos los compos correctos </t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizar una  mascota ingresando el campo  "id" (category) incorrecto </t>
-  </si>
-  <si>
-    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" incorrecto                                                 3. enviar "id"(category)                                           4. Ingresar campo "name" (Category)                                                5. Ingresar campo "name"                               6.  Insertar Urls en el campo "PhotoUrls"                                                7. Ingresar el campo "Id" (tags)                                              8. Ingresar campo"name"(tags)                                             9. Ingresar el campo "Status"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. /pet                                                        2. 415,01                                                    3. 00                                                            4.  Perro                                                            5.  Sol                                                           6. photos/Sol/                                                 7. 0001                                                        8. Estrella                                                        9. available </t>
-  </si>
-  <si>
-    <t>Mostrará un mensaje resaltando el campo "petId" (category) como incorrecto mostrar status code 400 Pet not found</t>
-  </si>
-  <si>
     <t>No se actualiza la unidad en el sistema , no es agregada ninguna actualizacion nueva.</t>
   </si>
   <si>
-    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" correcto                                                 3. enviar "id"(category)                                           4. Ingresar campo "name" (Category)                                                5. Ingresar campo "name"                               6.  Insertar Urls en el campo "PhotoUrls"                                                7. Ingresar el campo "Id" (tags)                                              8. Ingresar campo"name"(tags)                                             9. Ingresar el campo "Status"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. /pet                                                        2. 415,01                                                    3. 002                                                             4.  gato                                                              5.  pecas                                                          6. photos/pecas/                                                 7. 0041                                                        8. manchas                                                        9. sold </t>
-  </si>
-  <si>
-    <t>Mostrará un mensaje de éxito y Mostrar status 200  con la info de la mascota actualizada</t>
-  </si>
-  <si>
     <t>Se actualiza la unidad en el sistema ,  es agregada  actualizacion nueva.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. /pet                                                        2. 415,01                                                    3. hnsnsjdiukdnj                                                             4.  gato                                                              5.  pecas                                                          6. photos/pecas/                                                 7. 0041                                                        8. manchas                                                        9. sold </t>
-  </si>
-  <si>
-    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" correcto                                                 3. enviar "id"(category) incorrecto                                           4. Ingresar campo "name" (Category)                                                5. Ingresar campo "name"                               6.  Insertar Urls en el campo "PhotoUrls"                                                7. Ingresar el campo "Id" (tags)                                              8. Ingresar campo"name"(tags)                                             9. Ingresar el campo "Status"</t>
+    <t>Adicionar unidad ingresado solo numeros el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado  numeros y letras el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  00                                                   3.  perro                                                     4. 15246582                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. Sold </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name" con numeros                                       5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. Seleccionar  "Status"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  00                                                   3.  perro                                                     4. pecas52457                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. pending </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name"con letras y numeros                               5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. seleccionar  "Status"</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name" (21 caracteres)                                   5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. seleccionar  "Status"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Registro exitoso" con status 200 y la informacion de la mascota creada</t>
+  </si>
+  <si>
+    <t>Se agrega una unidad nueva en el sistema.</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado el campo obligatorio "Name" con carcteres especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  00                                                   3.  perros                                                      4. luna*/_                                                5. photos/manchas/                                                 6. 007854                                             7.  dog                                                   8. sold </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name" (con caracteres especiales)                                   5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. seleccionar  "Status"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "No se permiten caracteres especiales en el campo "name" " resaltando el campo "Name" y  Mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres alfabeticos" resaltando el campo "Name" y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres alfabeticos" resaltando el campo "Name"  y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje resaltando el campo "status"  como obligatorio y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  001                                                3.  Gato                                                     4. ---                                                     5. photos/manchas/                                                 6. 0003                                              7. pintas                                                   8. pending </t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje resaltando el campo "Name" como onligatorio mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>En los criterios de aceptacion no se especifica si los caraceres especiales son permitidos en el campo "name" se hace pruebas con supuesto de caracteres especiales no permitidos</t>
+  </si>
+  <si>
+    <t>Adicionar mascota con el campo obligatorio "Name" (category)  vacio.</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado solo numeros el campo obligatorio "Name" (category)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar mascota dejando el campo obligatorio "id" (category) vacio  </t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                  3.  15246                                                     4.  flor                                                  5. photos/flor/                                                 6. 0002                                                 7. flores                                                    8. Pending</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                  2. Igresar "id"(category)                                           3. Ingresar campo "name" (Category)(solo numeros)                                   4. Ingresar campo "name"                                  5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags                  7. Ingresar campo"name"(tags)                                            8. Ingresar el campo "Status"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres alfabeticos" resaltando el campo "Name" (category)  y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado el campo obligatorio "Name" (category) con caracteres especiales</t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                  3.  perros_*                                                     4.  flor                                                  5. photos/flor/                                                 6. 0002                                                 7. flores                                                    8. Pending</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                  2. Igresar "id"(category)                                           3. Ingresar campo "name" (Category)(con caracteres especiales)                                   4. Ingresar campo "name"                                  5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags                  7. Ingresar campo"name"(tags)                                            8. Ingresar el campo "Status"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "No se permiten caracteres especiales en el campo "name" " resaltando el campo "Name" (category) y  Mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar mascota ingresando el campo obligatorio "id" (category) con letras  </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                  2. Igresar "id"(category) (con letras)                                          3. Ingresar campo "name" (Category)                                   4. Ingresar campo "name"                                  5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags                  7. Ingresar campo"name"(tags)                                            8. Ingresar el campo "Status"</t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  iduno                                                  3.  perros                                                   4.  flor                                                  5. photos/flor/                                                 6. 0002                                                 7. flores                                                    8. Pending</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres numericos" resaltando el campo "id" (category) y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar mascota ingresando el campo obligatorio "id" (category) con mas de 3 caracteres  </t>
+  </si>
+  <si>
+    <t>En los criterios de aceptacion no se especifica el numero maximo de caracteres permitidos en el campo "id" (category) se hace pruebas con supuesto de nuevos de caracteres de (3)</t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  0236                                                  3.  perros                                                   4.  flor                                                  5. photos/flor/                                                 6. 0002                                                 7. flores                                                    8. Pending</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                  2. Igresar "id"(category) (con 4 caracteres)                                          3. Ingresar campo "name" (Category)                                      4. Ingresar campo "name"                                  5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags                  7. Ingresar campo"name"(tags)                                            8. Ingresar el campo "Status"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo son validos 3 caracteres" resaltando el campo "id" (category) y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se eliminará una mascota, ingresando el campo de "petId" con numero entero </t>
+  </si>
+  <si>
+    <t>Se eliminará una mascota, ingresando el campo de "petId" con numero decimal</t>
+  </si>
+  <si>
+    <t>Debe estar creada la mascota, tener acceso a la cuanta del administrador</t>
+  </si>
+  <si>
+    <t>Se eliminará una mascota, ingresando el campo de "petId" con caracteres alfabeticos</t>
+  </si>
+  <si>
+    <t>mostrar mensaje " campo id invalido" status code 400Pet not found</t>
+  </si>
+  <si>
+    <t>mostrar mensaje "se ha eliminado la mascota" status code 200</t>
+  </si>
+  <si>
+    <t>No se eliminará la mascota, se mantienen las mismas unidades en el sistema</t>
+  </si>
+  <si>
+    <t>Se eliminará la mascota, se resta una mascota al sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se eliminará una mascota, ingresando el campo de "petId"  con un id no existente </t>
+  </si>
+  <si>
+    <t>1 /pet/{petId}                                                                  2.  000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se eliminará una mascota, ingresando el campo de "petId"  con un id invalido. (mas de 3 caracteres) </t>
+  </si>
+  <si>
+    <t>No estar creada la mascota, tener acceso a la cuanta del administrador</t>
+  </si>
+  <si>
+    <t>1 /pet/{petId}                                                                  2.  13654855</t>
+  </si>
+  <si>
+    <t>Cp_add21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una  mascota ingresando el campo  "id" (category) con caracteres alfabeticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se filtra mascota, dejando el campo "Status"  vacio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la Url: /pet/findByStatus                           2.  "Status" vacio                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una  mascota ingresando el campo  "petid" con caracteres alfabeticos </t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado  mas caracteres de los permitidos (33) en el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  0001                                                   3.  gatos                                                      4. manchasgrisesyblancaslogtradfghju                                                     5. photos/manchas/                                                 6. 00054                                             7.  gato                                                   8. available </t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "No se permiten mas de 32 caracteres en el campo "name" " resaltando el campo "Name" y  Mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>En los criterios de aceptacion no se especifica el numero maximo de caracteres permitidos en el campo "name" se hace pruebas con supuesto maximo de caracteres (32)</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado el maximo de caracteres permitidos  (32) en el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name" (32 caracteres)                                   5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. seleccionar  "Status"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  0001                                                   3.  gatos                                                      4. manchasgrisesyblancakjhgfdasxcvb                                                        5. photos/manchas/                                                 6. 00054                                             7.  gato                                                   8. pending </t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado valor de extremo  (31) en el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /pet                                                2.  00                                                   3.  perros                                                      4. manchasgrisesyblancñphtfacfrtgu                                                        5. photos/manchas/                                                 6. 007854                                             7.  gato                                                   8. sold </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name" (31 caracteres)                                   5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. seleccionar  "Status"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar informacion de una mascota con campo "petid" invalido </t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresado el campo obligatorio "petid" con carcteres especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una  mascota ingresando el campo  "petid" valido </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" invalido (hola)                                                 3. enviar "id"(category) (00)                                           4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name" (sol)                               6.  Insertar Urls en el campo "PhotoUrls" photos/sol/                                                7. Ingresar el campo "Id" (tags) (145)                                                         8. Ingresar campo"name"(tags) (mundo)                                                9. Ingresar el campo "Status" (available)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" invalido (12*)                                                 3. enviar "id"(category) (00)                                           4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name" (sol)                               6.  Insertar Urls en el campo "PhotoUrls" photos/sol/                                                7. Ingresar el campo "Id" (tags) (145)                                                          8. Ingresar campo"name"(tags) (mundo)                                               9. Ingresar el campo "Status" (available)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" valido (862)                                                 3. enviar "id"(category) (001)                                          4. Ingresar campo "name" (Category) (gato)                                               5. Ingresar campo "name"  (pelusas)                                               6.  Insertar Urls en el campo "PhotoUrls"   photos/pelusa.jpg                                             7. Ingresar el campo "Id" (tags) (012)                                                       8. Ingresar campo"name"(tags)  (algodon)                                              9. Ingresar el campo "Status0" (pending)</t>
+  </si>
+  <si>
+    <t>Actualizar informacion de una mascota con campo "petid" valido</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (526)                                                       3. enviar "id"(category) (mmmmm)                                                   4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name"(dante)                                      6.  Insertar Urls en el campo "PhotoUrls" (photos/dante.jpg)                                               7. Ingresar el campo "Id" (tags)  ()015                                                       8. Ingresar campo"name"(tags)(dan)                                                       9. Ingresar el campo "Status"(available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identificador </t>
+  </si>
+  <si>
+    <t>Actualizar informacion de una mascota con "id" (category) invalido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una  mascota ingresando el campo  "id" (category) con caracteres alfanumericos </t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (12n)                                           4. Ingresar campo "name" (Category) (gato)                                               5. Ingresar campo "name" (pecas)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (0041)                                                       8. Ingresar campo"name"(tags) (manchas)                                             9. Ingresar el campo "Status" (sold)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la Url: /pet/{petId}                            2. Ingresar "petId" (12,1)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la Url: /pet/{petId}                                  2. Ingresar "petId" (231)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la Url: /pet/{petId}                                  2. Ingresar "petId" (lupe)                 </t>
+  </si>
+  <si>
+    <t>1. ingresar a la Url: /pet/{petId}                                  2. Ingresar "petId" (000)</t>
+  </si>
+  <si>
+    <t>1. ingresar a la Url: /pet/{petId}                                  2. Ingresar "petId" (15246852)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (526)                                      3. Ingresar campo "name" (12647)                                                                    4. Ingresar el campo "Status" (Pending)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (526)                                      3. Ingresar campo "name" (lucas152)                                                                    4. Ingresar el campo "Status" (sold)                             </t>
+  </si>
+  <si>
+    <t>Actualizar  mascota ingresado solo numeros el campo  "Name"</t>
+  </si>
+  <si>
+    <t>Actualizar  mascota ingresado  numeros y letras el campo  "Name"</t>
+  </si>
+  <si>
+    <t>Actualizar  mascota ingresado  mas caracteres de los permitidos, (33) en el campo  "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (528)                                      3. Ingresar campo "name" (hijuytrftgrdfresdfrtghnbvcfgtfuyh)                                                                    4. Ingresar el campo "Status" (sold)                             </t>
+  </si>
+  <si>
+    <t>Actualizar  mascota ingresado el maximo de caracteres permitidos  (32) en el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (588)                                      3. Ingresar campo "name" (hijuytrftgrdfresdfrtghnbvcfgtfuy)                                                                    4. Ingresar el campo "Status" (pending)                             </t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Actualizacion exitosa" con status 200 y la informacion de la mascota creada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (588)                                      3. Ingresar campo "name" (hijuytrftgrdfresdfrtghnbvcfgtfu)                                                                    4. Ingresar el campo "Status" (pending)                             </t>
+  </si>
+  <si>
+    <t>Actualizar mascota ingresado valor de extremo  (31) en el campo  "Name"</t>
+  </si>
+  <si>
+    <t>Actualizar mascota ingresado el campo  "Name" con carcteres especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (188)                                      3. Ingresar campo "name" (negro_*)                                                                    4. Ingresar el campo "Status" (pending)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                    2. Ingresar "petId" (0,12)                       3. Ingresar campo "name" (lucas)                                                                   4. Ingresar el campo "Status" (available)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (011)                                           3. Ingresar campo "name" (simon)                                                                    4. Ingresar el campo "Status"  (pending)                            </t>
+  </si>
+  <si>
+    <t>Se actualiza datos de una mascota, ingresando el campo de "petId" con valores alfabeticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (hola)                                           3. Ingresar campo "name" (simon)                                                                    4. Ingresar el campo "Status"  (pending)                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (567)                                      3. Ingresar campo "name" (lupe)                                                                    4. No ingresar el campo "Status"                              </t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                   3.  perro                                                     4. dog                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. pending</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresando "pending" en el campo "Status" .</t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                   3.  perro                                                     4. dog                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. sold</t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresando "sold" en el campo "Status" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar URL: /pet                                2. Ingresar "id" (Category)                                                3. Ingresar campo "name" (Category)                                         4. Ingresar campo "name"                               5.  insertar Urls en el campo "PhotoUrls"                                      6. Ingresar el campo "Id" (tags)                                                   7. Ingresar campo"name"(tags)                                             8. seleccionar  "Status" </t>
+  </si>
+  <si>
+    <t>Adicionar unidad ingresando "available" en el campo "Status" .</t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                   3.  perro                                                     4. dog                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar unidad ingresando el campo obligatorio "Status"  con una valor numerico </t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                   3.  perro                                                     4. dog                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. 21546</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres alfabeticos" resaltando el campo "status"  y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>1. /pet                                                2.  00                                                   3.  perro                                                     4. dog                                                     5. photos/manchas/                                                 6. 0004                                               7. perro                                                   8. hola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar unidad ingresando el campo obligatorio "Status"  con una valor inexistente </t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "el valor incresado en el campo status es invalido" resaltando el campo "status"  y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Se actualizara mascota  ingresando "sold" en el campo "Status" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se guardara la  unidad y se mostrará el status 200 con la informacion de la mascota actualizada </t>
+  </si>
+  <si>
+    <t>Se actualizara mascota  ingresando "available" en el campo "Status" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (867)                                      3. Ingresar campo "name" (luna)                                                                    4.  ingresar el campo "Status" (available)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (567)                                      3. Ingresar campo "name" (lupe)                                                                    4. ingresar el campo "Status" (sold)                             </t>
+  </si>
+  <si>
+    <t>Se actualizara mascota  ingresando "pending" en el campo "Status" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (887)                                      3. Ingresar campo "name" (luz)                                                                    4.  ingresar el campo "Status" (pending)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (887)                                      3. Ingresar campo "name" (luz)                                                                    4.  ingresar el campo "Status" (15456)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizar mascosta ingresando el campo obligatorio "Status"  con una valor inexistente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar a la  Url: /pet/{petId}                                   2. Ingresar "petId" (887)                                      3. Ingresar campo "name" (luz)                                                                    4.  ingresar el campo "Status" (hola)                             </t>
+  </si>
+  <si>
+    <t>Cp_add22</t>
+  </si>
+  <si>
+    <t>Cp_add23</t>
+  </si>
+  <si>
+    <t>Cp_add24</t>
+  </si>
+  <si>
+    <t>Cp_add25</t>
+  </si>
+  <si>
+    <t>Cp_add26</t>
+  </si>
+  <si>
+    <t>Cp_add41</t>
+  </si>
+  <si>
+    <t>Cp_add40</t>
+  </si>
+  <si>
+    <t>Cp_add39</t>
+  </si>
+  <si>
+    <t>Cp_add38</t>
+  </si>
+  <si>
+    <t>Cp_add37</t>
+  </si>
+  <si>
+    <t>Cp_add36</t>
+  </si>
+  <si>
+    <t>Cp_add35</t>
+  </si>
+  <si>
+    <t>Cp_add34</t>
+  </si>
+  <si>
+    <t>Cp_add33</t>
+  </si>
+  <si>
+    <t>Cp_add32</t>
+  </si>
+  <si>
+    <t>Cp_add31</t>
+  </si>
+  <si>
+    <t>Cp_add30</t>
+  </si>
+  <si>
+    <t>Cp_add29</t>
+  </si>
+  <si>
+    <t>Cp_add28</t>
+  </si>
+  <si>
+    <t>Cp_add27</t>
+  </si>
+  <si>
+    <t>Cp_add42</t>
+  </si>
+  <si>
+    <t>Cp_add43</t>
+  </si>
+  <si>
+    <t>Cp_add44</t>
+  </si>
+  <si>
+    <t>Cp_add45</t>
+  </si>
+  <si>
+    <t>Cp_add46</t>
+  </si>
+  <si>
+    <t>Cp_add47</t>
+  </si>
+  <si>
+    <t>Cp_add48</t>
+  </si>
+  <si>
+    <t>Cp_add53</t>
+  </si>
+  <si>
+    <t>Cp_add52</t>
+  </si>
+  <si>
+    <t>Cp_add51</t>
+  </si>
+  <si>
+    <t>Cp_add50</t>
+  </si>
+  <si>
+    <t>Cp_add49</t>
+  </si>
+  <si>
+    <t>Cp_add54</t>
+  </si>
+  <si>
+    <t>Cp_add55</t>
+  </si>
+  <si>
+    <t>Cp_add59</t>
+  </si>
+  <si>
+    <t>Cp_add58</t>
+  </si>
+  <si>
+    <t>Cp_add57</t>
+  </si>
+  <si>
+    <t>Cp_add56</t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje de éxito y Mostrar status 201  con la info de la mascota actualizada</t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje resaltando el campo "petId" (category) como incorrecto mostrar status code 405 Pet not found</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (122)                                           4. Ingresar campo "name" (Category) (vacio)                                               5. Ingresar campo "name" (pecas)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (0041)                                                       8. Ingresar campo"name"(tags) (manchas)                                             9. Ingresar el campo "Status" (sold)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (122)                                           4. Ingresar campo "name" (Category) (1567469)                                               5. Ingresar campo "name" (pecas)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (0041)                                                       8. Ingresar campo"name"(tags) (manchas)                                             9. Ingresar el campo "Status" (sold)</t>
+  </si>
+  <si>
+    <t>Actualizar mascota  ingresando el campo obligatorio "Name" (category) con caracteres especiales</t>
+  </si>
+  <si>
+    <t>Actualizar mascota con el campo obligatorio "Name" mascota Vacio</t>
+  </si>
+  <si>
+    <t>Actualizar mascota ingresado solo numeros el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t>Actualizar mascota ingresado  numeros y letras el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Registro exitoso" con status 201 y la informacion de la mascota actualizada</t>
+  </si>
+  <si>
+    <t>Actualizar  mascota ingresando valor de extremo  (31) en el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t>Actualizar mascota ingresando el maximo de caracteres permitidos  (32) en el campo obligatorio "Name"</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Actualizacion exitosa" con status 201 y la informacion de la mascota creada</t>
+  </si>
+  <si>
+    <t>Actualizar mascota  ingresando el campo obligatorio "Name" con carcteres especiales</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (122)                                           4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name" (784500)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (0041)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (pending)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (152)                                           4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name" (vacio)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (0041)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (sold)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (122)                                           4. Ingresar campo "name" (Category) (gat**)                                               5. Ingresar campo "name" (pecas)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (0041)                                                       8. Ingresar campo"name"(tags) (manchas)                                             9. Ingresar el campo "Status" (sold)</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "No se permiten caracteres especiales en el campo "name" " y  Mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "No se permiten mas de 32 caracteres en el campo "name" "  y  Mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres alfabeticos" y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará el mensaje "Solo se permiten caracteres alfabeticos"   y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje "el campo "Id" (category) es obligatorio"  y mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrar status 405 invalid input</t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje informando el campo "petId" (category) como incorrecto mostrar status code 405 Pet not found</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (786)                                                       3. enviar "id"(category) (925)                                           4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name" (coc_o!)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (541)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (available)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (625)                                           4. Ingresar campo "name" (Category) (gato)                                               5. Ingresar campo "name" (juhgytfrdsewaqswdefrguhijlkoiub)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (041)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (available)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (622)                                           4. Ingresar campo "name" (Category) (perro)                                               5. Ingresar campo "name" (juhgytfrdsewaqswdefrguhijlkoiubv)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (041)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (available)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (122)                                           4. Ingresar campo "name" (Category) (gato)                                               5. Ingresar campo "name" (juhgytfrdsewaqswdefrguhijlkoiubvc)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (841)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (pending)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" (416)                                                       3. enviar "id"(category) (122)                                           4. Ingresar campo "name" (Category) (gato)                                               5. Ingresar campo "name" (sim0n)                                                  6.  Insertar Urls en el campo "PhotoUrls" (photos/pecas)                                                7. Ingresar el campo "Id" (tags) (141)                                                       8. Ingresar campo"name"(tags) (lobo)                                             9. Ingresar el campo "Status" (pending)</t>
+  </si>
+  <si>
+    <t>1. ingresar URL: /pet                                   2. ingresar el campo "petid" correcto (415)                                                3. enviar "id"(category)(002)                                           4. Ingresar campo "name" (Category) (gato)                                               5. Ingresar campo "name"(pecas)                                   6.  Insertar Urls en el campo "PhotoUrls"(photos/pecas.jpg)                                                    7. Ingresar el campo "Id" (tags)(123)                                                        8. Ingresar campo"name"(tags)(manchas)                                                  9. Ingresar el campo "Status"(sold)</t>
+  </si>
+  <si>
+    <t>Cp_add69</t>
+  </si>
+  <si>
+    <t>Cp_add68</t>
+  </si>
+  <si>
+    <t>Cp_add67</t>
+  </si>
+  <si>
+    <t>Cp_add66</t>
+  </si>
+  <si>
+    <t>Cp_add65</t>
+  </si>
+  <si>
+    <t>Cp_add64</t>
+  </si>
+  <si>
+    <t>Cp_add63</t>
+  </si>
+  <si>
+    <t>Cp_add62</t>
+  </si>
+  <si>
+    <t>Cp_add61</t>
+  </si>
+  <si>
+    <t>Cp_add60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Tener acceso a la cuanta del administrador                                                                                    - Acceso a postman                                                             - conexión a interet </t>
+  </si>
+  <si>
+    <t>precondiciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precondiciones </t>
+  </si>
+  <si>
+    <t>tener cuenta de usuario (dueño de la mascota) activa                                                -Acceso a internet                                                          -tener mascotas registradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precondicones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Tener acceso a la cuanta del administrador                                                                                    - Acceso a postman                                                             - conexión a interet                                  -tener mascotas registradas</t>
   </si>
 </sst>
 </file>
@@ -491,7 +1039,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +1052,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -580,11 +1134,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -608,32 +1182,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,378 +1553,1102 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:Q9"/>
+  <dimension ref="B2:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="P2" s="21"/>
       <c r="Q2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>22</v>
+    <row r="3" spans="2:19" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="204" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+        <v>149</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="D9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="H10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="9" t="s">
+      <c r="M17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>73</v>
+      <c r="M18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>19</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="90">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,8 +2663,8 @@
   </sheetPr>
   <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,36 +2681,36 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>7</v>
@@ -1393,158 +2718,158 @@
     </row>
     <row r="3" spans="2:16" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="E3" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="22"/>
       <c r="I3" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="22"/>
       <c r="O3" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="22"/>
       <c r="I5" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="22"/>
       <c r="O5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="22"/>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1581,198 +2906,745 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:P5"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11"/>
+      <c r="C2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="O2" s="21"/>
       <c r="P2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>29</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>32</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>33</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="O9" s="17"/>
+      <c r="P9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>34</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>35</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="C11" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>36</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="13" spans="2:17" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>37</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="C13" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>38</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>39</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>11</v>
+      <c r="C15" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>40</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>41</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="64">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,10 +3657,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:P6"/>
+  <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,226 +3670,279 @@
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="O2" s="21"/>
       <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="E3" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13"/>
+        <v>169</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="22"/>
       <c r="I3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="G5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2" t="s">
+    <row r="6" spans="2:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2" t="s">
+    <row r="7" spans="2:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>46</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>18</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,7 +3957,7 @@
   <dimension ref="B2:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,7 +3968,7 @@
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="28.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
   </cols>
@@ -2052,36 +3977,36 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>7</v>
@@ -2089,38 +4014,38 @@
     </row>
     <row r="3" spans="2:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="E3" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="22"/>
       <c r="I3" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="22"/>
       <c r="O3" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>11</v>
@@ -2128,38 +4053,38 @@
     </row>
     <row r="4" spans="2:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>20</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>11</v>
@@ -2189,10 +4114,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:P4"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,8 +4125,8 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2209,36 +4134,36 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>7</v>
@@ -2246,38 +4171,36 @@
     </row>
     <row r="3" spans="2:16" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>21</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="E3" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="22"/>
       <c r="O3" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>11</v>
@@ -2285,49 +4208,160 @@
     </row>
     <row r="4" spans="2:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>22</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="13"/>
+        <v>195</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="2:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>52</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>53</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="23">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
@@ -2336,6 +4370,21 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2346,196 +4395,805 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:P5"/>
+  <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11"/>
+      <c r="C2" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="O2" s="21"/>
       <c r="P2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
-        <v>131</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>56</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="J5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>57</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>58</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>59</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="269.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>60</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="264" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>61</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="258" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>62</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>63</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="J12" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>65</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>67</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>68</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="311.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>69</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="66">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
